--- a/MetaData/MultiOmicsSamples_TabithaRuecker2023.xlsx
+++ b/MetaData/MultiOmicsSamples_TabithaRuecker2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabitharucker/Desktop/PhDEpiExp/NGS/RNAseq embryonal set/Data tables thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F715A-0D9C-ED4A-97C9-4A15A72EABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2FCA38-D157-FF44-B1AD-B2D0DDECCA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{553F9D31-5217-284C-8C51-0F9D725A923E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="All MassSpec" sheetId="2" r:id="rId3"/>
     <sheet name="All EMseq" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="644">
   <si>
     <t>mr215</t>
   </si>
@@ -1994,9 +1994,6 @@
     <t>For EMseq:</t>
   </si>
   <si>
-    <t>Samples for MultiOmic anayses</t>
-  </si>
-  <si>
     <t>Tabitha Rücker, 2023</t>
   </si>
   <si>
@@ -2030,24 +2027,9 @@
     <t>for DNAmethylome:</t>
   </si>
   <si>
-    <t>data has not been deposited</t>
-  </si>
-  <si>
-    <t>Please ask if needed: tr27121996@gmail.com</t>
-  </si>
-  <si>
     <t>All RNAseq</t>
   </si>
   <si>
-    <t>Sheet 1</t>
-  </si>
-  <si>
-    <t>Sheet 2</t>
-  </si>
-  <si>
-    <t>Sheet 3</t>
-  </si>
-  <si>
     <t>All MassSpec</t>
   </si>
   <si>
@@ -2055,6 +2037,27 @@
   </si>
   <si>
     <t>matching proteomics:</t>
+  </si>
+  <si>
+    <t>Cell population</t>
+  </si>
+  <si>
+    <t>Data has not been deposited</t>
+  </si>
+  <si>
+    <t>Available upon request: tr27121996@gmail.com</t>
+  </si>
+  <si>
+    <t>Samples for MultiOmic analyses</t>
+  </si>
+  <si>
+    <t>Sheet 1:</t>
+  </si>
+  <si>
+    <t>Sheet 2:</t>
+  </si>
+  <si>
+    <t>Sheet 3:</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2908,9 +2911,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2926,15 +2926,6 @@
     <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,46 +2933,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3009,32 +2970,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3055,36 +3009,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3109,6 +3056,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3130,9 +3119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3170,7 +3159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3276,7 +3265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3418,7 +3407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3426,97 +3415,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54857438-1DFD-6A4D-831E-27F6E1C5AE00}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="160" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="159" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="179" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="83" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8" t="s">
         <v>627</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>628</v>
-      </c>
-      <c r="C8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="83" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" t="s">
         <v>630</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="161" t="s">
         <v>631</v>
-      </c>
-      <c r="C9" s="181" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="83" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="83" t="s">
+        <v>641</v>
+      </c>
+      <c r="B12" t="s">
         <v>633</v>
-      </c>
-      <c r="B10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C10" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="83" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="83" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B14" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="83" t="s">
-        <v>639</v>
-      </c>
-      <c r="B15" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3521,7 @@
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3540,58 +3530,58 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="8" max="11" width="10.83203125" style="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="150"/>
+    <col min="16" max="16" width="10.83203125" style="136"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
     <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="179" customFormat="1" ht="20" thickBot="1">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:28" s="159" customFormat="1" ht="20" thickBot="1">
+      <c r="A1" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="159" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="179" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="179" t="s">
+      <c r="C1" s="159" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1" s="159" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="179" t="s">
+      <c r="E1" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="159" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="189" t="s">
+      <c r="H1" s="169" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="189" t="s">
+      <c r="I1" s="169" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="189" t="s">
+      <c r="J1" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="169" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="190" t="s">
+      <c r="L1" s="170" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="13" t="s">
@@ -3603,7 +3593,7 @@
       <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="107" t="s">
         <v>291</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3621,21 +3611,21 @@
       <c r="I2" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="106">
         <v>43692</v>
       </c>
       <c r="K2" s="8">
         <v>7.1</v>
       </c>
       <c r="M2" s="81"/>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R2" s="74"/>
       <c r="S2" s="74"/>
       <c r="T2" s="74"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
       <c r="W2" s="105"/>
       <c r="X2" s="105"/>
       <c r="Y2" s="81"/>
@@ -3677,7 +3667,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="M3" s="81"/>
-      <c r="P3" s="150" t="s">
+      <c r="P3" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R3" s="74"/>
@@ -3870,7 +3860,7 @@
         <v>7.8</v>
       </c>
       <c r="M7" s="81"/>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q7" s="101"/>
@@ -3909,7 +3899,7 @@
       <c r="H8" s="100">
         <v>10000</v>
       </c>
-      <c r="I8" s="182" t="s">
+      <c r="I8" s="162" t="s">
         <v>288</v>
       </c>
       <c r="J8" s="99">
@@ -3919,7 +3909,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N8" s="97"/>
-      <c r="P8" s="184" t="s">
+      <c r="P8" s="164" t="s">
         <v>553</v>
       </c>
       <c r="R8" s="95"/>
@@ -3968,7 +3958,7 @@
       </c>
       <c r="M9" s="81"/>
       <c r="N9" s="47"/>
-      <c r="P9" s="150" t="s">
+      <c r="P9" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R9" s="71"/>
@@ -4017,7 +4007,7 @@
       </c>
       <c r="M10" s="81"/>
       <c r="N10" s="48"/>
-      <c r="P10" s="150" t="s">
+      <c r="P10" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R10" s="91"/>
@@ -4209,7 +4199,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="M14" s="81"/>
-      <c r="P14" s="150" t="s">
+      <c r="P14" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R14" s="71"/>
@@ -4257,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="P15" s="150" t="s">
+      <c r="P15" s="136" t="s">
         <v>553</v>
       </c>
       <c r="R15" s="81"/>
@@ -4306,7 +4296,7 @@
       </c>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
-      <c r="P16" s="150" t="s">
+      <c r="P16" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q16" s="83"/>
@@ -4843,7 +4833,7 @@
       <c r="K29" s="16">
         <v>7</v>
       </c>
-      <c r="P29" s="150" t="s">
+      <c r="P29" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -4881,7 +4871,7 @@
       <c r="K30" s="16">
         <v>6.8</v>
       </c>
-      <c r="P30" s="150" t="s">
+      <c r="P30" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5059,7 +5049,7 @@
       <c r="K35" s="16">
         <v>8.6</v>
       </c>
-      <c r="P35" s="150" t="s">
+      <c r="P35" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5097,7 +5087,7 @@
       <c r="K36" s="16">
         <v>6.9</v>
       </c>
-      <c r="P36" s="150" t="s">
+      <c r="P36" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5135,7 +5125,7 @@
       <c r="K37" s="22">
         <v>7.9</v>
       </c>
-      <c r="P37" s="150" t="s">
+      <c r="P37" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5313,7 +5303,7 @@
       <c r="K42" s="16">
         <v>7</v>
       </c>
-      <c r="P42" s="150" t="s">
+      <c r="P42" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5351,7 +5341,7 @@
       <c r="K43" s="25">
         <v>7</v>
       </c>
-      <c r="P43" s="150" t="s">
+      <c r="P43" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5529,7 +5519,7 @@
       <c r="K48" s="16">
         <v>7.6</v>
       </c>
-      <c r="P48" s="150" t="s">
+      <c r="P48" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5763,7 +5753,7 @@
       <c r="I54" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J54" s="183">
+      <c r="J54" s="163">
         <v>44547</v>
       </c>
       <c r="K54" s="25">
@@ -6261,7 +6251,7 @@
         <v>7.2</v>
       </c>
       <c r="M66" s="60"/>
-      <c r="P66" s="150" t="s">
+      <c r="P66" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6375,7 +6365,7 @@
       </c>
       <c r="M69" s="60"/>
       <c r="N69" s="60"/>
-      <c r="P69" s="150" t="s">
+      <c r="P69" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6518,7 +6508,7 @@
       <c r="K73" s="25">
         <v>7.6</v>
       </c>
-      <c r="P73" s="150" t="s">
+      <c r="P73" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6617,7 +6607,7 @@
       <c r="H76" s="57">
         <v>1226</v>
       </c>
-      <c r="I76" s="182" t="s">
+      <c r="I76" s="162" t="s">
         <v>144</v>
       </c>
       <c r="J76" s="56">
@@ -6626,7 +6616,7 @@
       <c r="K76" s="55">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P76" s="184"/>
+      <c r="P76" s="164"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="19" t="s">
@@ -7117,7 +7107,7 @@
       <c r="K90" s="16">
         <v>7.4</v>
       </c>
-      <c r="P90" s="150" t="s">
+      <c r="P90" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7225,7 +7215,7 @@
       <c r="K93" s="22">
         <v>7</v>
       </c>
-      <c r="P93" s="150" t="s">
+      <c r="P93" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7263,7 +7253,7 @@
       <c r="K94" s="30">
         <v>7.7</v>
       </c>
-      <c r="P94" s="150" t="s">
+      <c r="P94" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7481,7 +7471,7 @@
       <c r="K100" s="16">
         <v>6.9</v>
       </c>
-      <c r="P100" s="150" t="s">
+      <c r="P100" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q100" s="33"/>
@@ -7593,7 +7583,7 @@
       <c r="K103" s="8">
         <v>7.2</v>
       </c>
-      <c r="P103" s="150" t="s">
+      <c r="P103" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q103" s="33"/>
@@ -7668,7 +7658,7 @@
       <c r="K105" s="25">
         <v>7.3</v>
       </c>
-      <c r="P105" s="150" t="s">
+      <c r="P105" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q105" s="33"/>
@@ -7850,7 +7840,7 @@
       <c r="K110" s="25">
         <v>8.1</v>
       </c>
-      <c r="P110" s="150" t="s">
+      <c r="P110" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7888,7 +7878,7 @@
       <c r="K111" s="25">
         <v>7.5</v>
       </c>
-      <c r="P111" s="150" t="s">
+      <c r="P111" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q111" s="33"/>
@@ -8106,7 +8096,7 @@
       <c r="K117" s="16">
         <v>7.4</v>
       </c>
-      <c r="P117" s="150" t="s">
+      <c r="P117" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q117" s="33"/>
@@ -8145,7 +8135,7 @@
       <c r="K118" s="25">
         <v>8.4</v>
       </c>
-      <c r="P118" s="150" t="s">
+      <c r="P118" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8183,7 +8173,7 @@
       <c r="K119" s="16">
         <v>8</v>
       </c>
-      <c r="P119" s="150" t="s">
+      <c r="P119" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q119" s="33"/>
@@ -8401,7 +8391,7 @@
       <c r="K125" s="30">
         <v>7</v>
       </c>
-      <c r="P125" s="150" t="s">
+      <c r="P125" s="136" t="s">
         <v>553</v>
       </c>
       <c r="Q125" s="33"/>
@@ -8582,7 +8572,7 @@
       <c r="K130" s="25">
         <v>7.7</v>
       </c>
-      <c r="P130" s="150" t="s">
+      <c r="P130" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8830,7 +8820,7 @@
       <c r="K137" s="8">
         <v>7.7</v>
       </c>
-      <c r="P137" s="150" t="s">
+      <c r="P137" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8868,7 +8858,7 @@
       <c r="K138" s="2">
         <v>7</v>
       </c>
-      <c r="P138" s="150" t="s">
+      <c r="P138" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8897,44 +8887,44 @@
     <col min="14" max="14" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="179" customFormat="1" ht="19">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:13" s="159" customFormat="1" ht="19">
+      <c r="A1" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="179" t="s">
+      <c r="E1" s="159" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="159" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="159" t="s">
         <v>309</v>
       </c>
-      <c r="I1" s="179" t="s">
+      <c r="I1" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="J1" s="179" t="s">
+      <c r="J1" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="179" t="s">
+      <c r="L1" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="179" t="s">
+      <c r="M1" s="159" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8945,7 +8935,7 @@
       <c r="B2" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="109">
         <v>44385</v>
       </c>
       <c r="D2" s="88">
@@ -8986,7 +8976,7 @@
       <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="110">
         <v>45128</v>
       </c>
       <c r="D3" s="88">
@@ -9027,7 +9017,7 @@
       <c r="B4" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="111">
         <v>47345</v>
       </c>
       <c r="D4" s="88">
@@ -9068,7 +9058,7 @@
       <c r="B5" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="112">
         <v>43663</v>
       </c>
       <c r="D5" s="88">
@@ -9109,7 +9099,7 @@
       <c r="B6" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>45128</v>
       </c>
       <c r="D6" s="88">
@@ -9150,7 +9140,7 @@
       <c r="B7" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="112">
+      <c r="C7" s="111">
         <v>43587</v>
       </c>
       <c r="D7" s="88">
@@ -9191,7 +9181,7 @@
       <c r="B8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" s="114">
+      <c r="C8" s="113">
         <v>43614</v>
       </c>
       <c r="D8" s="88">
@@ -9232,7 +9222,7 @@
       <c r="B9" t="s">
         <v>335</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <v>44076</v>
       </c>
       <c r="D9" s="88">
@@ -9273,7 +9263,7 @@
       <c r="B10" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="113">
         <v>44083</v>
       </c>
       <c r="D10" s="88">
@@ -9314,7 +9304,7 @@
       <c r="B11" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="112">
         <v>44090</v>
       </c>
       <c r="D11" s="88">
@@ -9355,7 +9345,7 @@
       <c r="B12" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>44076</v>
       </c>
       <c r="D12" s="88">
@@ -9396,7 +9386,7 @@
       <c r="B13" t="s">
         <v>341</v>
       </c>
-      <c r="C13" s="114">
+      <c r="C13" s="113">
         <v>44083</v>
       </c>
       <c r="D13" s="88">
@@ -9437,7 +9427,7 @@
       <c r="B14" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="112">
         <v>44090</v>
       </c>
       <c r="D14" s="88">
@@ -9478,7 +9468,7 @@
       <c r="B15" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>44175</v>
       </c>
       <c r="D15" s="88">
@@ -9519,7 +9509,7 @@
       <c r="B16" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="108">
         <v>44175</v>
       </c>
       <c r="D16" s="88">
@@ -9560,7 +9550,7 @@
       <c r="B17" t="s">
         <v>348</v>
       </c>
-      <c r="C17" s="116">
+      <c r="C17" s="115">
         <v>44393</v>
       </c>
       <c r="D17" s="88">
@@ -9601,7 +9591,7 @@
       <c r="B18" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="114">
         <v>44175</v>
       </c>
       <c r="D18" s="88">
@@ -9642,7 +9632,7 @@
       <c r="B19" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="109">
         <v>44519</v>
       </c>
       <c r="D19" s="88">
@@ -9683,7 +9673,7 @@
       <c r="B20" t="s">
         <v>355</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <v>44393</v>
       </c>
       <c r="D20" s="88">
@@ -9724,7 +9714,7 @@
       <c r="B21" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="116">
+      <c r="C21" s="115">
         <v>44316</v>
       </c>
       <c r="D21" s="88">
@@ -9765,7 +9755,7 @@
       <c r="B22" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="108">
         <v>44316</v>
       </c>
       <c r="D22" s="88">
@@ -9806,7 +9796,7 @@
       <c r="B23" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="109">
         <v>44519</v>
       </c>
       <c r="D23" s="88">
@@ -9847,7 +9837,7 @@
       <c r="B24" t="s">
         <v>364</v>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="115">
         <v>44316</v>
       </c>
       <c r="D24" s="88">
@@ -9888,7 +9878,7 @@
       <c r="B25" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="109">
+      <c r="C25" s="108">
         <v>44316</v>
       </c>
       <c r="D25" s="88">
@@ -9929,7 +9919,7 @@
       <c r="B26" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="108">
         <v>44887</v>
       </c>
       <c r="D26" s="88">
@@ -9970,7 +9960,7 @@
       <c r="B27" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="110">
+      <c r="C27" s="109">
         <v>44635</v>
       </c>
       <c r="D27" s="88">
@@ -10011,7 +10001,7 @@
       <c r="B28" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="112">
         <v>43992</v>
       </c>
       <c r="D28" s="88">
@@ -10052,7 +10042,7 @@
       <c r="B29" t="s">
         <v>380</v>
       </c>
-      <c r="C29" s="115">
+      <c r="C29" s="114">
         <v>44627</v>
       </c>
       <c r="D29" s="88">
@@ -10093,7 +10083,7 @@
       <c r="B30" t="s">
         <v>383</v>
       </c>
-      <c r="C30" s="185">
+      <c r="C30" s="165">
         <v>44635</v>
       </c>
       <c r="D30" s="88">
@@ -10134,7 +10124,7 @@
       <c r="B31" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="110">
         <v>44722</v>
       </c>
       <c r="D31" s="88">
@@ -10175,7 +10165,7 @@
       <c r="B32" t="s">
         <v>390</v>
       </c>
-      <c r="C32" s="114">
+      <c r="C32" s="113">
         <v>44705</v>
       </c>
       <c r="D32" s="88">
@@ -10216,7 +10206,7 @@
       <c r="B33" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="112">
         <v>44708</v>
       </c>
       <c r="D33" s="88">
@@ -10257,7 +10247,7 @@
       <c r="B34" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="116">
+      <c r="C34" s="115">
         <v>44271</v>
       </c>
       <c r="D34" s="88">
@@ -10298,7 +10288,7 @@
       <c r="B35" t="s">
         <v>396</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="110">
         <v>44722</v>
       </c>
       <c r="D35" s="88">
@@ -10339,7 +10329,7 @@
       <c r="B36" t="s">
         <v>399</v>
       </c>
-      <c r="C36" s="114">
+      <c r="C36" s="113">
         <v>44705</v>
       </c>
       <c r="D36" s="88">
@@ -10380,7 +10370,7 @@
       <c r="B37" t="s">
         <v>401</v>
       </c>
-      <c r="C37" s="113">
+      <c r="C37" s="112">
         <v>44708</v>
       </c>
       <c r="D37" s="88">
@@ -10421,7 +10411,7 @@
       <c r="B38" t="s">
         <v>403</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="110">
         <v>44048</v>
       </c>
       <c r="D38" s="88">
@@ -10462,7 +10452,7 @@
       <c r="B39" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="114">
+      <c r="C39" s="113">
         <v>44481</v>
       </c>
       <c r="D39" s="88">
@@ -10503,7 +10493,7 @@
       <c r="B40" t="s">
         <v>408</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="110">
         <v>44110</v>
       </c>
       <c r="D40" s="88">
@@ -10544,7 +10534,7 @@
       <c r="B41" t="s">
         <v>411</v>
       </c>
-      <c r="C41" s="114">
+      <c r="C41" s="113">
         <v>44481</v>
       </c>
       <c r="D41" s="88">
@@ -10585,7 +10575,7 @@
       <c r="B42" t="s">
         <v>414</v>
       </c>
-      <c r="C42" s="111">
+      <c r="C42" s="110">
         <v>44110</v>
       </c>
       <c r="D42" s="88">
@@ -10626,7 +10616,7 @@
       <c r="B43" t="s">
         <v>417</v>
       </c>
-      <c r="C43" s="111">
+      <c r="C43" s="110">
         <v>44547</v>
       </c>
       <c r="D43" s="88">
@@ -10667,7 +10657,7 @@
       <c r="B44" t="s">
         <v>420</v>
       </c>
-      <c r="C44" s="112">
+      <c r="C44" s="111">
         <v>44550</v>
       </c>
       <c r="D44" s="88">
@@ -10708,7 +10698,7 @@
       <c r="B45" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="111">
+      <c r="C45" s="110">
         <v>44991</v>
       </c>
       <c r="D45" s="88">
@@ -10749,7 +10739,7 @@
       <c r="B46" t="s">
         <v>425</v>
       </c>
-      <c r="C46" s="111">
+      <c r="C46" s="110">
         <v>44547</v>
       </c>
       <c r="D46" s="88">
@@ -10790,7 +10780,7 @@
       <c r="B47" t="s">
         <v>428</v>
       </c>
-      <c r="C47" s="111">
+      <c r="C47" s="110">
         <v>44991</v>
       </c>
       <c r="D47" s="88">
@@ -10831,7 +10821,7 @@
       <c r="B48" t="s">
         <v>430</v>
       </c>
-      <c r="C48" s="109">
+      <c r="C48" s="108">
         <v>44985</v>
       </c>
       <c r="D48" s="88">
@@ -10872,7 +10862,7 @@
       <c r="B49" t="s">
         <v>371</v>
       </c>
-      <c r="C49" s="117">
+      <c r="C49" s="116">
         <v>44593</v>
       </c>
       <c r="D49" s="88">
@@ -10913,7 +10903,7 @@
       <c r="B50" t="s">
         <v>436</v>
       </c>
-      <c r="C50" s="114">
+      <c r="C50" s="113">
         <v>44789</v>
       </c>
       <c r="D50" s="88">
@@ -10954,7 +10944,7 @@
       <c r="B51" t="s">
         <v>440</v>
       </c>
-      <c r="C51" s="117">
+      <c r="C51" s="116">
         <v>44593</v>
       </c>
       <c r="D51" s="88">
@@ -10995,7 +10985,7 @@
       <c r="B52" t="s">
         <v>444</v>
       </c>
-      <c r="C52" s="109">
+      <c r="C52" s="108">
         <v>45014</v>
       </c>
       <c r="D52" s="88">
@@ -11036,7 +11026,7 @@
       <c r="B53" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="111">
+      <c r="C53" s="110">
         <v>44754</v>
       </c>
       <c r="D53" s="88">
@@ -11078,7 +11068,7 @@
       <c r="B54" t="s">
         <v>451</v>
       </c>
-      <c r="C54" s="109">
+      <c r="C54" s="108">
         <v>44671</v>
       </c>
       <c r="D54" s="88">
@@ -11119,7 +11109,7 @@
       <c r="B55" t="s">
         <v>456</v>
       </c>
-      <c r="C55" s="111">
+      <c r="C55" s="110">
         <v>44516</v>
       </c>
       <c r="D55" s="88">
@@ -11160,7 +11150,7 @@
       <c r="B56" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="109">
+      <c r="C56" s="108">
         <v>45002</v>
       </c>
       <c r="D56" s="88">
@@ -11201,7 +11191,7 @@
       <c r="B57" t="s">
         <v>464</v>
       </c>
-      <c r="C57" s="111">
+      <c r="C57" s="110">
         <v>44516</v>
       </c>
       <c r="D57" s="88">
@@ -11242,7 +11232,7 @@
       <c r="B58" t="s">
         <v>468</v>
       </c>
-      <c r="C58" s="109">
+      <c r="C58" s="108">
         <v>44547</v>
       </c>
       <c r="D58" s="88">
@@ -11283,7 +11273,7 @@
       <c r="B59" t="s">
         <v>471</v>
       </c>
-      <c r="C59" s="115">
+      <c r="C59" s="114">
         <v>44393</v>
       </c>
       <c r="D59" s="88">
@@ -11324,7 +11314,7 @@
       <c r="B60" t="s">
         <v>473</v>
       </c>
-      <c r="C60" s="111">
+      <c r="C60" s="110">
         <v>44735</v>
       </c>
       <c r="D60" s="88">
@@ -11365,7 +11355,7 @@
       <c r="B61" t="s">
         <v>475</v>
       </c>
-      <c r="C61" s="109">
+      <c r="C61" s="108">
         <v>45027</v>
       </c>
       <c r="D61" s="88">
@@ -11406,7 +11396,7 @@
       <c r="B62" t="s">
         <v>478</v>
       </c>
-      <c r="C62" s="109">
+      <c r="C62" s="108">
         <v>45012</v>
       </c>
       <c r="D62" s="88">
@@ -11447,7 +11437,7 @@
       <c r="B63" t="s">
         <v>480</v>
       </c>
-      <c r="C63" s="111">
+      <c r="C63" s="110">
         <v>44735</v>
       </c>
       <c r="D63" s="88">
@@ -11488,7 +11478,7 @@
       <c r="B64" t="s">
         <v>371</v>
       </c>
-      <c r="C64" s="111">
+      <c r="C64" s="110">
         <v>44389</v>
       </c>
       <c r="D64" s="88">
@@ -11529,7 +11519,7 @@
       <c r="B65" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="112">
+      <c r="C65" s="111">
         <v>44735</v>
       </c>
       <c r="D65" s="88">
@@ -11570,7 +11560,7 @@
       <c r="B66" t="s">
         <v>489</v>
       </c>
-      <c r="C66" s="115">
+      <c r="C66" s="114">
         <v>44720</v>
       </c>
       <c r="D66" s="88">
@@ -11611,7 +11601,7 @@
       <c r="B67" t="s">
         <v>493</v>
       </c>
-      <c r="C67" s="109">
+      <c r="C67" s="108">
         <v>44872</v>
       </c>
       <c r="D67" s="88">
@@ -11652,7 +11642,7 @@
       <c r="B68" t="s">
         <v>496</v>
       </c>
-      <c r="C68" s="109">
+      <c r="C68" s="108">
         <v>44993</v>
       </c>
       <c r="D68" s="88">
@@ -11693,7 +11683,7 @@
       <c r="B69" t="s">
         <v>500</v>
       </c>
-      <c r="C69" s="112">
+      <c r="C69" s="111">
         <v>44789</v>
       </c>
       <c r="D69" s="88">
@@ -11734,7 +11724,7 @@
       <c r="B70" t="s">
         <v>504</v>
       </c>
-      <c r="C70" s="109">
+      <c r="C70" s="108">
         <v>44874</v>
       </c>
       <c r="D70" s="88">
@@ -11775,7 +11765,7 @@
       <c r="B71" t="s">
         <v>509</v>
       </c>
-      <c r="C71" s="109">
+      <c r="C71" s="108">
         <v>45009</v>
       </c>
       <c r="D71" s="88">
@@ -11816,7 +11806,7 @@
       <c r="B72" t="s">
         <v>513</v>
       </c>
-      <c r="C72" s="109">
+      <c r="C72" s="108">
         <v>44995</v>
       </c>
       <c r="D72" s="88">
@@ -11857,7 +11847,7 @@
       <c r="B73" t="s">
         <v>517</v>
       </c>
-      <c r="C73" s="112">
+      <c r="C73" s="111">
         <v>44866</v>
       </c>
       <c r="D73" s="88">
@@ -11892,7 +11882,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="C74" s="109"/>
+      <c r="C74" s="108"/>
       <c r="D74" s="88"/>
     </row>
   </sheetData>
@@ -11911,569 +11901,552 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="154"/>
-    <col min="4" max="4" width="15.5" style="154" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="154"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="141" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="142" t="s">
         <v>547</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="143" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="141" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="136" t="s">
         <v>554</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="167"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="136"/>
+      <c r="T3" s="136"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="136" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
+      <c r="F4" s="136"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="136" t="s">
         <v>558</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="151" t="s">
+      <c r="F5" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="136" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D6" s="153" t="s">
+      <c r="D6" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="167"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="151"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="136" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="136" t="s">
         <v>565</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="F8" s="151" t="s">
+      <c r="F8" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="167"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="48"/>
+      <c r="T8" s="136"/>
     </row>
     <row r="9" spans="1:20" ht="21">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="136" t="s">
         <v>567</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="H9" s="118" t="s">
+      <c r="F9" s="136"/>
+      <c r="H9" s="176" t="s">
         <v>520</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="178"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="158"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="136" t="s">
         <v>569</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="151"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="174"/>
+      <c r="F10" s="136"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="154"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="136" t="s">
         <v>571</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="151"/>
-      <c r="H11" s="124" t="s">
+      <c r="F11" s="136"/>
+      <c r="H11" s="179" t="s">
         <v>521</v>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="175"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="181"/>
+      <c r="T11" s="155"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="136" t="s">
         <v>573</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="151"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="175"/>
+      <c r="F12" s="136"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="155"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="136" t="s">
         <v>575</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="153" t="s">
+      <c r="E13" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="175"/>
+      <c r="F13" s="136"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="155"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="136" t="s">
         <v>577</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="153" t="s">
+      <c r="E14" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="151"/>
-      <c r="H14" s="132" t="s">
+      <c r="F14" s="136"/>
+      <c r="H14" s="172" t="s">
         <v>522</v>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="175"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="155"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="136" t="s">
         <v>579</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="153" t="s">
+      <c r="E15" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="121"/>
+      <c r="F15" s="136"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="117"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="136" t="s">
         <v>581</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="E16" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="H16" s="137" t="s">
+      <c r="F16" s="136"/>
+      <c r="H16" s="175" t="s">
         <v>523</v>
       </c>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
     </row>
     <row r="17" spans="1:19" ht="48">
       <c r="A17" t="s">
         <v>621</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="144" t="s">
         <v>536</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="145" t="s">
         <v>583</v>
       </c>
-      <c r="D17" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="163" t="s">
+      <c r="D17" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="151" t="s">
+      <c r="F17" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="124" t="s">
         <v>524</v>
       </c>
-      <c r="I17" s="138" t="s">
+      <c r="I17" s="124" t="s">
         <v>525</v>
       </c>
-      <c r="J17" s="138" t="s">
+      <c r="J17" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="K17" s="138" t="s">
+      <c r="K17" s="124" t="s">
         <v>524</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="125" t="s">
         <v>527</v>
       </c>
-      <c r="M17" s="138" t="s">
+      <c r="M17" s="124" t="s">
         <v>528</v>
       </c>
-      <c r="N17" s="138" t="s">
+      <c r="N17" s="124" t="s">
         <v>529</v>
       </c>
-      <c r="O17" s="138" t="s">
+      <c r="O17" s="124" t="s">
         <v>530</v>
       </c>
-      <c r="P17" s="138" t="s">
+      <c r="P17" s="124" t="s">
         <v>531</v>
       </c>
-      <c r="Q17" s="138" t="s">
+      <c r="Q17" s="124" t="s">
         <v>532</v>
       </c>
-      <c r="R17" s="138" t="s">
+      <c r="R17" s="124" t="s">
         <v>533</v>
       </c>
-      <c r="S17" s="138" t="s">
+      <c r="S17" s="124" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="136" t="s">
         <v>584</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="D18" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="153" t="s">
+      <c r="D18" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="151"/>
-      <c r="H18" s="140" t="s">
+      <c r="F18" s="136"/>
+      <c r="H18" s="126" t="s">
         <v>535</v>
       </c>
-      <c r="I18" s="140" t="s">
+      <c r="I18" s="126" t="s">
         <v>536</v>
       </c>
-      <c r="J18" s="141">
+      <c r="J18" s="127">
         <v>45140</v>
       </c>
-      <c r="K18" s="142" t="str">
+      <c r="K18" s="128" t="str">
         <f>H18</f>
         <v>mr604</v>
       </c>
-      <c r="L18" s="143">
-        <v>1</v>
-      </c>
-      <c r="M18" s="144" t="s">
+      <c r="L18" s="129">
+        <v>1</v>
+      </c>
+      <c r="M18" s="130" t="s">
         <v>537</v>
       </c>
-      <c r="N18" s="145">
+      <c r="N18" s="131">
         <v>39.799999999999997</v>
       </c>
-      <c r="O18" s="145">
+      <c r="O18" s="131">
         <f>S18/N18</f>
         <v>5.025125628140704</v>
       </c>
-      <c r="P18" s="145">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="145">
-        <v>1</v>
-      </c>
-      <c r="R18" s="145">
+      <c r="P18" s="131">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="131">
+        <v>1</v>
+      </c>
+      <c r="R18" s="131">
         <f>50-O18-P18-Q18</f>
         <v>42.974874371859293</v>
       </c>
-      <c r="S18" s="144">
+      <c r="S18" s="130">
         <v>200</v>
       </c>
     </row>
@@ -12481,293 +12454,293 @@
       <c r="A19" t="s">
         <v>621</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="136" t="s">
         <v>586</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="D19" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="153" t="s">
+      <c r="D19" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="151"/>
-      <c r="H19" s="146" t="s">
+      <c r="F19" s="136"/>
+      <c r="H19" s="132" t="s">
         <v>538</v>
       </c>
-      <c r="I19" s="146" t="s">
+      <c r="I19" s="132" t="s">
         <v>539</v>
       </c>
-      <c r="J19" s="141">
+      <c r="J19" s="127">
         <v>45140</v>
       </c>
-      <c r="K19" s="142" t="str">
+      <c r="K19" s="128" t="str">
         <f t="shared" ref="K19:K21" si="0">H19</f>
         <v>mr607</v>
       </c>
-      <c r="L19" s="147">
+      <c r="L19" s="133">
         <v>2</v>
       </c>
-      <c r="M19" s="148" t="s">
+      <c r="M19" s="134" t="s">
         <v>540</v>
       </c>
-      <c r="N19" s="148">
+      <c r="N19" s="134">
         <v>48.8</v>
       </c>
-      <c r="O19" s="149">
+      <c r="O19" s="135">
         <f>S19/N19</f>
         <v>4.0983606557377055</v>
       </c>
-      <c r="P19" s="149">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="149">
-        <v>1</v>
-      </c>
-      <c r="R19" s="149">
+      <c r="P19" s="135">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="135">
+        <v>1</v>
+      </c>
+      <c r="R19" s="135">
         <f t="shared" ref="R19:R21" si="1">50-O19-P19-Q19</f>
         <v>43.901639344262293</v>
       </c>
-      <c r="S19" s="144">
+      <c r="S19" s="130">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="144" t="s">
         <v>539</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="145" t="s">
         <v>588</v>
       </c>
-      <c r="D20" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="151" t="s">
+      <c r="F20" s="136" t="s">
         <v>553</v>
       </c>
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="126" t="s">
         <v>541</v>
       </c>
-      <c r="I20" s="140" t="s">
+      <c r="I20" s="126" t="s">
         <v>542</v>
       </c>
-      <c r="J20" s="141">
+      <c r="J20" s="127">
         <v>45140</v>
       </c>
-      <c r="K20" s="142" t="str">
+      <c r="K20" s="128" t="str">
         <f t="shared" si="0"/>
         <v>mr616</v>
       </c>
-      <c r="L20" s="143">
+      <c r="L20" s="129">
         <v>3</v>
       </c>
-      <c r="M20" s="144" t="s">
+      <c r="M20" s="130" t="s">
         <v>543</v>
       </c>
-      <c r="N20" s="145">
+      <c r="N20" s="131">
         <v>45.8</v>
       </c>
-      <c r="O20" s="145">
+      <c r="O20" s="131">
         <f>S20/N20</f>
         <v>4.3668122270742362</v>
       </c>
-      <c r="P20" s="145">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="145">
-        <v>1</v>
-      </c>
-      <c r="R20" s="145">
+      <c r="P20" s="131">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="131">
+        <v>1</v>
+      </c>
+      <c r="R20" s="131">
         <f t="shared" si="1"/>
         <v>43.633187772925766</v>
       </c>
-      <c r="S20" s="144">
+      <c r="S20" s="130">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="136" t="s">
         <v>589</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="D21" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="153" t="s">
+      <c r="D21" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="H21" s="146" t="s">
+      <c r="F21" s="136"/>
+      <c r="H21" s="132" t="s">
         <v>544</v>
       </c>
-      <c r="I21" s="146" t="s">
+      <c r="I21" s="132" t="s">
         <v>545</v>
       </c>
-      <c r="J21" s="141">
+      <c r="J21" s="127">
         <v>45140</v>
       </c>
-      <c r="K21" s="142" t="str">
+      <c r="K21" s="128" t="str">
         <f t="shared" si="0"/>
         <v>mr617</v>
       </c>
-      <c r="L21" s="147">
-        <v>4</v>
-      </c>
-      <c r="M21" s="148" t="s">
+      <c r="L21" s="133">
+        <v>4</v>
+      </c>
+      <c r="M21" s="134" t="s">
         <v>546</v>
       </c>
-      <c r="N21" s="148">
+      <c r="N21" s="134">
         <v>28.2</v>
       </c>
-      <c r="O21" s="149">
+      <c r="O21" s="135">
         <f>S21/N21</f>
         <v>7.0921985815602842</v>
       </c>
-      <c r="P21" s="149">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="149">
-        <v>1</v>
-      </c>
-      <c r="R21" s="149">
+      <c r="P21" s="135">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="135">
+        <v>1</v>
+      </c>
+      <c r="R21" s="135">
         <f t="shared" si="1"/>
         <v>40.907801418439718</v>
       </c>
-      <c r="S21" s="144">
+      <c r="S21" s="130">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="136" t="s">
         <v>591</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="D22" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="153" t="s">
+      <c r="D22" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F22" s="151"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="136" t="s">
         <v>593</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="D23" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="153" t="s">
+      <c r="D23" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F23" s="151"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="136" t="s">
         <v>595</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="D24" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="153" t="s">
+      <c r="D24" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F24" s="151"/>
+      <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="136" t="s">
         <v>597</v>
       </c>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D25" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="153" t="s">
+      <c r="D25" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="151"/>
+      <c r="F25" s="136"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="136" t="s">
         <v>598</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="64" t="s">
         <v>599</v>
       </c>
-      <c r="D26" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="153" t="s">
+      <c r="D26" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="151"/>
+      <c r="F26" s="136"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="138" t="s">
         <v>600</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="139" t="s">
         <v>601</v>
       </c>
-      <c r="D27" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="157" t="s">
+      <c r="D27" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="F27" s="155" t="s">
+      <c r="F27" s="138" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="136" t="s">
         <v>604</v>
       </c>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="D28" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="153" t="s">
+      <c r="D28" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>621</v>
       </c>
-      <c r="B29" s="164" t="s">
+      <c r="B29" s="147" t="s">
         <v>542</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="148" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="166" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="166" t="s">
+      <c r="D29" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="149" t="s">
         <v>552</v>
       </c>
-      <c r="F29" s="151" t="s">
+      <c r="F29" s="136" t="s">
         <v>553</v>
       </c>
     </row>
@@ -12775,141 +12748,141 @@
       <c r="A30" t="s">
         <v>621</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="147" t="s">
         <v>545</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="148" t="s">
         <v>607</v>
       </c>
-      <c r="D30" s="166" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="166" t="s">
+      <c r="D30" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="149" t="s">
         <v>552</v>
       </c>
-      <c r="F30" s="151" t="s">
+      <c r="F30" s="136" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="136" t="s">
         <v>608</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D31" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="153" t="s">
+      <c r="D31" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F31" s="151"/>
+      <c r="F31" s="136"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="136" t="s">
         <v>609</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="D32" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="153" t="s">
+      <c r="D32" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="151"/>
+      <c r="F32" s="136"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="136" t="s">
         <v>611</v>
       </c>
-      <c r="C33" s="152" t="s">
+      <c r="C33" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="D33" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="153" t="s">
+      <c r="D33" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F33" s="151"/>
+      <c r="F33" s="136"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="136" t="s">
         <v>613</v>
       </c>
-      <c r="C34" s="152" t="s">
+      <c r="C34" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="D34" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="153" t="s">
+      <c r="D34" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="136"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="136" t="s">
         <v>615</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="153" t="s">
+      <c r="E35" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F35" s="151"/>
+      <c r="F35" s="136"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="136" t="s">
         <v>617</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D36" s="153" t="s">
+      <c r="D36" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="153" t="s">
+      <c r="E36" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F36" s="151"/>
+      <c r="F36" s="136"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="136" t="s">
         <v>618</v>
       </c>
-      <c r="C37" s="152" t="s">
+      <c r="C37" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="153" t="s">
+      <c r="E37" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F37" s="151"/>
+      <c r="F37" s="136"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="136" t="s">
         <v>619</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D38" s="153" t="s">
+      <c r="D38" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="153" t="s">
+      <c r="E38" s="137" t="s">
         <v>552</v>
       </c>
-      <c r="F38" s="151"/>
+      <c r="F38" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="4">
